--- a/demo/导表/电气入库/2箱式变电站.xlsx
+++ b/demo/导表/电气入库/2箱式变电站.xlsx
@@ -19,46 +19,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>全密封三相双绕组油浸、无载调压低损耗电力变压器</t>
+  </si>
+  <si>
+    <t>Dyn11</t>
+  </si>
+  <si>
+    <t>37±2×2.5%/0.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全密封三相双绕组油浸、无载调压低损耗电力变压器</t>
-  </si>
-  <si>
-    <t>Dyn11</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37±2×2.5%/0.69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接线组别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短路阻抗</t>
+    <t>CoolingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortCircuitImpedance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapacityBoxVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VoltageClasses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WiringGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +99,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Medium"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -126,6 +137,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,91 +489,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="18.75">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="D2">
         <v>2750</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="11:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="K19" s="1"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="11:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="11:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="K21" s="1"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="11:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="K22" s="1"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="11:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="K23" s="1"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="11:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="K24" s="1"/>
-      <c r="N24" s="2"/>
+    <row r="18" spans="12:15">
+      <c r="L18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="12:15" ht="15.75">
+      <c r="L19" s="1"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="12:15" ht="15.75">
+      <c r="L20" s="1"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="12:15" ht="15.75">
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="12:15" ht="15.75">
+      <c r="L22" s="1"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="12:15" ht="15.75">
+      <c r="L23" s="1"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="12:15" ht="15.75">
+      <c r="L24" s="1"/>
+      <c r="O24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/demo/导表/电气入库/2箱式变电站.xlsx
+++ b/demo/导表/电气入库/2箱式变电站.xlsx
@@ -55,15 +55,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CapacityBoxVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VoltageClasses</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WiringGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +492,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -514,13 +514,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>

--- a/demo/导表/电气入库/2箱式变电站.xlsx
+++ b/demo/导表/电气入库/2箱式变电站.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -501,6 +501,7 @@
     <col min="3" max="3" width="48.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
